--- a/generated_docs/WR_89830464_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I71"/>
+  <dimension ref="A2:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7835.25</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>411.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>231.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>71.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>135.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>306.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>94.31999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>64.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>74.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>547.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>199.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>197.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>262.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>128.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>158.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>212.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>65.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1547,960 +1547,994 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>308.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="inlineStr">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>332</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H41" s="16" t="n">
-        <v>4531.8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="H42" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>Thursday (08/07/2025)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G46" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B47" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
         <v>89</v>
       </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>208.26</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B48" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
         <v>62</v>
       </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>145.08</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+      <c r="G48" s="13" t="inlineStr"/>
+      <c r="H48" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
         <v>62</v>
       </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>44.64</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
         <v>106</v>
       </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>248.04</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
         <v>106</v>
       </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>76.31999999999999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
         <v>182</v>
       </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>169.26</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F52" s="10" t="n">
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>121.68</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="inlineStr">
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B53" s="12" t="inlineStr">
+      <c r="B54" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C53" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="12" t="inlineStr">
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="n">
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="G53" s="13" t="inlineStr"/>
-      <c r="H53" s="14" t="n">
-        <v>37.44</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="inlineStr">
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D54" s="9" t="inlineStr">
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E54" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F54" s="10" t="n">
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
         <v>104</v>
       </c>
-      <c r="G54" s="10" t="inlineStr"/>
-      <c r="H54" s="11" t="n">
-        <v>96.72</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B55" s="12" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E55" s="12" t="inlineStr">
+      <c r="E56" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F55" s="13" t="n">
+      <c r="F56" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E56" s="9" t="inlineStr">
+      <c r="E57" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F57" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>133.98</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E57" s="12" t="inlineStr">
+      <c r="E58" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F57" s="13" t="n">
+      <c r="F58" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>181.83</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E58" s="9" t="inlineStr">
+      <c r="E59" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F59" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>124.41</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B59" s="12" t="inlineStr">
+      <c r="B60" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E59" s="12" t="inlineStr">
+      <c r="E60" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F59" s="13" t="n">
+      <c r="F60" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>153.12</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="inlineStr">
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B60" s="9" t="inlineStr">
+      <c r="B61" s="9" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E60" s="9" t="inlineStr">
+      <c r="E61" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F60" s="10" t="n">
+      <c r="F61" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>47.85</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B61" s="12" t="inlineStr">
+      <c r="B62" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E61" s="12" t="inlineStr">
+      <c r="E62" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F61" s="13" t="n">
+      <c r="F62" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="inlineStr">
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B62" s="9" t="inlineStr">
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C62" s="9" t="inlineStr">
+      <c r="C63" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D62" s="9" t="inlineStr">
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E62" s="9" t="inlineStr">
+      <c r="E63" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F62" s="10" t="n">
+      <c r="F63" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G62" s="10" t="inlineStr"/>
-      <c r="H62" s="11" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B63" s="12" t="inlineStr">
+      <c r="B64" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="12" t="inlineStr">
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E63" s="12" t="inlineStr">
+      <c r="E64" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F63" s="13" t="n">
+      <c r="F64" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="G63" s="13" t="inlineStr"/>
-      <c r="H63" s="14" t="n">
-        <v>133.98</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="B65" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C64" s="9" t="inlineStr">
+      <c r="C65" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E64" s="9" t="inlineStr">
+      <c r="E65" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F65" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G64" s="10" t="inlineStr"/>
-      <c r="H64" s="11" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="inlineStr">
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B65" s="12" t="inlineStr">
+      <c r="B66" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E65" s="12" t="inlineStr">
+      <c r="E66" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F65" s="13" t="n">
+      <c r="F66" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="G65" s="13" t="inlineStr"/>
-      <c r="H65" s="14" t="n">
-        <v>172.26</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="inlineStr">
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B66" s="9" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C66" s="9" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D66" s="9" t="inlineStr">
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E66" s="9" t="inlineStr">
+      <c r="E67" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F66" s="10" t="n">
+      <c r="F67" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G66" s="10" t="inlineStr"/>
-      <c r="H66" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="12" t="inlineStr">
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B67" s="12" t="inlineStr">
+      <c r="B68" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C67" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D67" s="12" t="inlineStr">
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E67" s="12" t="inlineStr">
+      <c r="E68" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F67" s="13" t="n">
+      <c r="F68" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="G67" s="13" t="inlineStr"/>
-      <c r="H67" s="14" t="n">
-        <v>181.83</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="inlineStr">
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B68" s="9" t="inlineStr">
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C68" s="9" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D68" s="9" t="inlineStr">
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E68" s="9" t="inlineStr">
+      <c r="E69" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F69" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G68" s="10" t="inlineStr"/>
-      <c r="H68" s="11" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="inlineStr">
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B69" s="12" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C69" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="12" t="inlineStr">
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E69" s="12" t="inlineStr">
+      <c r="E70" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F69" s="13" t="n">
+      <c r="F70" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="G69" s="13" t="inlineStr"/>
-      <c r="H69" s="14" t="n">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B70" s="9" t="inlineStr">
+      <c r="B71" s="9" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C70" s="9" t="inlineStr">
+      <c r="C71" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D70" s="9" t="inlineStr">
+      <c r="D71" s="9" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E70" s="9" t="inlineStr">
+      <c r="E71" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F70" s="10" t="n">
+      <c r="F71" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G70" s="10" t="inlineStr"/>
-      <c r="H70" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="15" t="inlineStr">
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H71" s="16" t="n">
-        <v>3303.45</v>
+      <c r="H72" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2510,14 +2544,14 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89830464_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I72"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>7835.25</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P146</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>411.06</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>231.66</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>71.28</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>135.78</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>306.54</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>94.31999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>547.5599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>199.02</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>197.16</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>262.26</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>128.34</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>158.1</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>212.94</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1509,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>65.52</v>
       </c>
     </row>
     <row r="39">
@@ -1547,994 +1543,960 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>308.76</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="inlineStr">
+      <c r="A41" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H41" s="16" t="n">
+        <v>4531.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/07/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>208.26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>62</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>145.08</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>248.04</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>76.31999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>182</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>169.26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>121.68</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>96.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>133.98</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>181.83</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>124.41</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>153.12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>133.98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Point 18</t>
         </is>
       </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>332</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="15" t="inlineStr">
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>172.26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C67" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>181.83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E69" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H42" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/07/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D46" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E46" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F46" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G46" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H46" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C47" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F47" s="10" t="n">
-        <v>89</v>
-      </c>
-      <c r="G47" s="10" t="inlineStr"/>
-      <c r="H47" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B48" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C48" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E48" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="n">
-        <v>62</v>
-      </c>
-      <c r="G48" s="13" t="inlineStr"/>
-      <c r="H48" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>62</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C51" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>106</v>
-      </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B52" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C52" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D52" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
-        <v>182</v>
-      </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C53" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E53" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F53" s="10" t="n">
-        <v>52</v>
-      </c>
-      <c r="G53" s="10" t="inlineStr"/>
-      <c r="H53" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B54" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C54" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D54" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="G54" s="13" t="inlineStr"/>
-      <c r="H54" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C55" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>104</v>
-      </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B56" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C56" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E56" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G56" s="13" t="inlineStr"/>
-      <c r="H56" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E57" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G57" s="10" t="inlineStr"/>
-      <c r="H57" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B58" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C58" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E58" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="G58" s="13" t="inlineStr"/>
-      <c r="H58" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E59" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C63" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B64" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
-        <is>
-          <t>Point 18</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B66" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B68" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E68" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H72" s="16" t="n">
-        <v>0</v>
+      <c r="H71" s="16" t="n">
+        <v>3303.45</v>
       </c>
     </row>
   </sheetData>
@@ -2544,14 +2506,14 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A71:G71"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
